--- a/node/node50.xlsx
+++ b/node/node50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yc\Desktop\node\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crossin/Downloads/workbench/doing/3大网站分析/知乎分析/zhihu_data-master/node/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{711B21BE-CD70-4726-8C85-78157C6DDF28}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C28EB0-2A47-DA40-AB6C-6796D04ED8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9612" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>穷游锦囊</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Raymond Wang</t>
-  </si>
-  <si>
-    <t>yolfilm</t>
   </si>
   <si>
     <t>magasa</t>
@@ -196,17 +193,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,7 +258,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,23 +558,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -585,7 +582,7 @@
         <v>607355</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -593,7 +590,7 @@
         <v>544208</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -601,7 +598,7 @@
         <v>653399</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -609,7 +606,7 @@
         <v>532863</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -617,7 +614,7 @@
         <v>859221</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -625,7 +622,7 @@
         <v>677502</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -633,7 +630,7 @@
         <v>897238</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -641,7 +638,7 @@
         <v>689139</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -649,7 +646,7 @@
         <v>974899</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -657,7 +654,7 @@
         <v>1072525</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -665,7 +662,7 @@
         <v>676350</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -673,7 +670,7 @@
         <v>652482</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -681,7 +678,7 @@
         <v>669977</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -689,7 +686,7 @@
         <v>786238</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -697,7 +694,7 @@
         <v>888690</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -705,7 +702,7 @@
         <v>696942</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -713,7 +710,7 @@
         <v>717219</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -721,7 +718,7 @@
         <v>855428</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -729,7 +726,7 @@
         <v>541076</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -737,7 +734,7 @@
         <v>511632</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -745,7 +742,7 @@
         <v>597904</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -753,7 +750,7 @@
         <v>853704</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -761,7 +758,7 @@
         <v>547585</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -769,7 +766,7 @@
         <v>536111</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -777,203 +774,195 @@
         <v>825608</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>798023</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>667969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>667969</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2225797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2225797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2251526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2251526</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>796566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>796566</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>897488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>897488</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>513985</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>513985</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>798656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>798656</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>526423</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>526423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>933245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>933245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>581359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>581359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>715816</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>715816</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3990955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3990955</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>547077</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>547077</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2336578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2336578</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>683383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>683383</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>614309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>614309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>851139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>851139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>736297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>736297</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>557972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>557972</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1274835</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1274835</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>603005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>603005</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>658388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>658388</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>691337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>691337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
         <v>591354</v>
       </c>
     </row>
